--- a/input_data/covid_input/corres_WIOD_2016_2013.xlsx
+++ b/input_data/covid_input/corres_WIOD_2016_2013.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1587580709" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1587580709" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1587580709" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1587580709"/>
+      <pm:revision xmlns:pm="smNativeData" day="1588427956" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1588427956" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1588427956" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1588427956"/>
     </ext>
   </extLst>
 </workbook>
@@ -823,7 +823,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1587580709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1588427956" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -838,7 +838,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1587580709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1588427956" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -853,7 +853,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1587580709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1588427956" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Times New Roman" sz="160" lang="default"/>
             <pm:ea face="SimSun" sz="160" lang="default"/>
@@ -862,7 +862,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,7 +875,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1587580709" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588427956" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -886,24 +886,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1587580709" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1587580709" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1588427956" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -919,7 +908,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
+          <pm:border xmlns:pm="smNativeData" id="1588427956"/>
         </ext>
       </extLst>
     </border>
@@ -938,7 +927,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
+          <pm:border xmlns:pm="smNativeData" id="1588427956"/>
         </ext>
       </extLst>
     </border>
@@ -957,26 +946,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1587580709"/>
+          <pm:border xmlns:pm="smNativeData" id="1588427956"/>
         </ext>
       </extLst>
     </border>
@@ -1014,10 +984,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1587580709" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1588427956" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1587580709" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1588427956" count="2">
         <pm:color name="Color 24" rgb="F4AF82"/>
         <pm:color name="Color 25" rgb="C7C7C7"/>
       </pm:colors>
@@ -2957,7 +2927,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1587580709" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1588427956" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2966,16 +2936,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1588427956" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1588427956" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1588427956" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1588427956" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1587580709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1588427956" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2986,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J36"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.535714" defaultRowHeight="15.40"/>
@@ -3107,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:9">
       <c r="B6" s="3" t="n">
         <v>20</v>
       </c>
@@ -3174,8 +3144,8 @@
       <c r="G8" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="7" t="n">
-        <v>1</v>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -3842,7 +3812,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1587580709" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1588427956" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3851,16 +3821,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1587580709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1587580709" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1588427956" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1588427956" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1588427956" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1588427956" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1587580709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1588427956" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
